--- a/src/Prototypes/hmi/AI/bio_master_C.xlsx
+++ b/src/Prototypes/hmi/AI/bio_master_C.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Q\Documents\uni\Echo\Project-Echo\src\Prototypes\hmi\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohit\OneDrive - Deakin University\Deakin University - rohit bajaj\Y3 Trimester 1\SIT374 Team Project A\Project ECHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1785924F-1CF4-4057-9181-A1EEE65E520F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81B1D844-5595-4F78-AC3D-14F8BC2DED73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1950" windowWidth="25600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bio_master_D" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,9 +33,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="263">
   <si>
     <t>Animal</t>
+  </si>
+  <si>
+    <t>Common Name</t>
+  </si>
+  <si>
+    <t>Bio Prompt</t>
+  </si>
+  <si>
+    <t>Image Prompt</t>
   </si>
   <si>
     <t>Bio
@@ -63,779 +72,770 @@
 both lookup functions updated</t>
   </si>
   <si>
+    <t>Litoria latopalmata</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Litoria latopalmata.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Litoria latopalmata in it's natural habitat</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Litoria myola</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Litoria myola.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Litoria myola in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Litoria peronii</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Litoria peronii.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Litoria peronii in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Litoria serrata</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Litoria serrata.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Litoria serrata in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Litoria verreauxii</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Litoria verreauxii.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Litoria verreauxii in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Litoria xanthomera</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Litoria xanthomera.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Litoria xanthomera in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Lophochroa leadbeateri</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Lophochroa leadbeateri.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Lophochroa leadbeateri in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Macropus giganteus</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Macropus giganteus.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Macropus giganteus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>MalacostracaÂ sp.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  MalacostracaÂ sp..</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, MalacostracaÂ sp. in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Malurus coronatus</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Malurus coronatus.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Malurus coronatus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Malurus cyaneus</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Malurus cyaneus.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Malurus cyaneus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Malurus lamberti</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Malurus lamberti.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Malurus lamberti in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Malurus leucopterus</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Malurus leucopterus.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Malurus leucopterus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Malurus splendens</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Malurus splendens.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Malurus splendens in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Manorina flavigula</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Manorina flavigula.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Manorina flavigula in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Manorina melanocephala</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Manorina melanocephala.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Manorina melanocephala in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Manorina melanophrys</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Manorina melanophrys.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Manorina melanophrys in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Megapodius reinwardt</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Megapodius reinwardt.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Megapodius reinwardt in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Melanodryas cucullata</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Melanodryas cucullata.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Melanodryas cucullata in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Meliphaga lewinii</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Meliphaga lewinii.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Meliphaga lewinii in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Melithreptus albogularis</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Melithreptus albogularis.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Melithreptus albogularis in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Melithreptus brevirostris</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Melithreptus brevirostris.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Melithreptus brevirostris in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Melithreptus gularis</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Melithreptus gularis.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Melithreptus gularis in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Melithreptus lunatus</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Melithreptus lunatus.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Melithreptus lunatus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Melopsittacus undulatus</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Melopsittacus undulatus.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Melopsittacus undulatus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Menura alberti</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Menura alberti.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Menura alberti in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Menura novaehollandiae</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Menura novaehollandiae.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Menura novaehollandiae in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Merops ornatus</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Merops ornatus.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Merops ornatus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>MicrochiropteraÂ sp.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  MicrochiropteraÂ sp..</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, MicrochiropteraÂ sp. in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Microeca fascinans</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Microeca fascinans.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Microeca fascinans in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Microeca flavigaster</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Microeca flavigaster.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Microeca flavigaster in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Milvus migrans</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Milvus migrans.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Milvus migrans in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Mirafra javanica</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Mirafra javanica.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Mirafra javanica in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Myiagra alecto</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Myiagra alecto.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Myiagra alecto in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Myiagra cyanoleuca</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Myiagra cyanoleuca.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Myiagra cyanoleuca in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Myiagra inquieta</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Myiagra inquieta.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Myiagra inquieta in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Myiagra rubecula</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Myiagra rubecula.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Myiagra rubecula in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Myzomela erythrocephala</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Myzomela erythrocephala.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Myzomela erythrocephala in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Myzomela sanguinolenta</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Myzomela sanguinolenta.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Myzomela sanguinolenta in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Neochmia phaeton</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Neochmia phaeton.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Neochmia phaeton in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Neochmia temporalis</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Neochmia temporalis.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Neochmia temporalis in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Neophema pulchella</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Neophema pulchella.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Neophema pulchella in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Neosericornis citreogularis</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Neosericornis citreogularis.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Neosericornis citreogularis in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Nesoptilotis leucotis</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Nesoptilotis leucotis.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Nesoptilotis leucotis in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Nettapus pulchellus</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Nettapus pulchellus.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Nettapus pulchellus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Ninox boobook</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Ninox boobook.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Ninox boobook in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Ninox connivens</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Ninox connivens.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Ninox connivens in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Ninox strenua</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Ninox strenua.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Ninox strenua in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Notamacropus rufogriseus</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Notamacropus rufogriseus.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Notamacropus rufogriseus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>NotopsaltraÂ atrata</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  NotopsaltraÂ atrata.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, NotopsaltraÂ atrata in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Nycticorax caledonicus</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Nycticorax caledonicus.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Nycticorax caledonicus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Nymphicus hollandicus</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Nymphicus hollandicus.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Nymphicus hollandicus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Ocyphaps lophotes</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Ocyphaps lophotes.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Ocyphaps lophotes in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Oreoica gutturalis</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Oreoica gutturalis.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Oreoica gutturalis in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Origma solitaria</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Origma solitaria.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Origma solitaria in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Oriolus flavocinctus</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Oriolus flavocinctus.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Oriolus flavocinctus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Oriolus sagittatus</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Oriolus sagittatus.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Oriolus sagittatus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Osphranter robustus</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Osphranter robustus.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Osphranter robustus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Pachycephala inornata</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Pachycephala inornata.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Pachycephala inornata in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Pachycephala pectoralis</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Pachycephala pectoralis.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Pachycephala pectoralis in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Pachycephala rufiventris</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Pachycephala rufiventris.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Pachycephala rufiventris in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Pachycephala simplex</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Pachycephala simplex.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Pachycephala simplex in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Pardalotus punctatus</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Pardalotus punctatus.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Pardalotus punctatus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Pardalotus rubricatus</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Pardalotus rubricatus.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Pardalotus rubricatus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Pardalotus striatus</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Pardalotus striatus.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Pardalotus striatus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Parvipsitta pusilla</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Parvipsitta pusilla.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Parvipsitta pusilla in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Pelecanus conspicillatus</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Pelecanus conspicillatus.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Pelecanus conspicillatus in it's natural habitat</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Litoria latopalmata</t>
-  </si>
-  <si>
-    <t>Litoria myola</t>
-  </si>
-  <si>
-    <t>Litoria peronii</t>
-  </si>
-  <si>
-    <t>Litoria serrata</t>
-  </si>
-  <si>
-    <t>Litoria verreauxii</t>
-  </si>
-  <si>
-    <t>Litoria xanthomera</t>
-  </si>
-  <si>
-    <t>Lophochroa leadbeateri</t>
-  </si>
-  <si>
-    <t>Macropus giganteus</t>
-  </si>
-  <si>
-    <t>MalacostracaÂ sp.</t>
-  </si>
-  <si>
-    <t>Malurus coronatus</t>
-  </si>
-  <si>
-    <t>Malurus cyaneus</t>
-  </si>
-  <si>
-    <t>Malurus lamberti</t>
-  </si>
-  <si>
-    <t>Malurus leucopterus</t>
-  </si>
-  <si>
-    <t>Malurus splendens</t>
-  </si>
-  <si>
-    <t>Manorina flavigula</t>
-  </si>
-  <si>
-    <t>Manorina melanocephala</t>
-  </si>
-  <si>
-    <t>Manorina melanophrys</t>
-  </si>
-  <si>
-    <t>Megapodius reinwardt</t>
-  </si>
-  <si>
-    <t>Melanodryas cucullata</t>
-  </si>
-  <si>
-    <t>Meliphaga lewinii</t>
-  </si>
-  <si>
-    <t>Melithreptus albogularis</t>
-  </si>
-  <si>
-    <t>Melithreptus brevirostris</t>
-  </si>
-  <si>
-    <t>Melithreptus gularis</t>
-  </si>
-  <si>
-    <t>Melithreptus lunatus</t>
-  </si>
-  <si>
-    <t>Melopsittacus undulatus</t>
-  </si>
-  <si>
-    <t>Menura alberti</t>
-  </si>
-  <si>
-    <t>Menura novaehollandiae</t>
-  </si>
-  <si>
-    <t>Merops ornatus</t>
-  </si>
-  <si>
-    <t>MicrochiropteraÂ sp.</t>
-  </si>
-  <si>
-    <t>Microeca fascinans</t>
-  </si>
-  <si>
-    <t>Microeca flavigaster</t>
-  </si>
-  <si>
-    <t>Milvus migrans</t>
-  </si>
-  <si>
-    <t>Mirafra javanica</t>
-  </si>
-  <si>
-    <t>Myiagra alecto</t>
-  </si>
-  <si>
-    <t>Myiagra cyanoleuca</t>
-  </si>
-  <si>
-    <t>Myiagra inquieta</t>
-  </si>
-  <si>
-    <t>Myiagra rubecula</t>
-  </si>
-  <si>
-    <t>Myzomela erythrocephala</t>
-  </si>
-  <si>
-    <t>Myzomela sanguinolenta</t>
-  </si>
-  <si>
-    <t>Neochmia phaeton</t>
-  </si>
-  <si>
-    <t>Neochmia temporalis</t>
-  </si>
-  <si>
-    <t>Neophema pulchella</t>
-  </si>
-  <si>
-    <t>Neosericornis citreogularis</t>
-  </si>
-  <si>
-    <t>Nesoptilotis leucotis</t>
-  </si>
-  <si>
-    <t>Nettapus pulchellus</t>
-  </si>
-  <si>
-    <t>Ninox boobook</t>
-  </si>
-  <si>
-    <t>Ninox connivens</t>
-  </si>
-  <si>
-    <t>Ninox strenua</t>
-  </si>
-  <si>
-    <t>Notamacropus rufogriseus</t>
-  </si>
-  <si>
-    <t>NotopsaltraÂ atrata</t>
-  </si>
-  <si>
-    <t>Nycticorax caledonicus</t>
-  </si>
-  <si>
-    <t>Nymphicus hollandicus</t>
-  </si>
-  <si>
-    <t>Ocyphaps lophotes</t>
-  </si>
-  <si>
-    <t>Oreoica gutturalis</t>
-  </si>
-  <si>
-    <t>Origma solitaria</t>
-  </si>
-  <si>
-    <t>Oriolus flavocinctus</t>
-  </si>
-  <si>
-    <t>Oriolus sagittatus</t>
-  </si>
-  <si>
-    <t>Osphranter robustus</t>
-  </si>
-  <si>
-    <t>Pachycephala inornata</t>
-  </si>
-  <si>
-    <t>Pachycephala pectoralis</t>
-  </si>
-  <si>
-    <t>Pachycephala rufiventris</t>
-  </si>
-  <si>
-    <t>Pachycephala simplex</t>
-  </si>
-  <si>
-    <t>Pardalotus punctatus</t>
-  </si>
-  <si>
-    <t>Pardalotus rubricatus</t>
-  </si>
-  <si>
-    <t>Pardalotus striatus</t>
-  </si>
-  <si>
-    <t>Parvipsitta pusilla</t>
-  </si>
-  <si>
-    <t>Pelecanus conspicillatus</t>
+    <t>y</t>
   </si>
   <si>
     <t>Petrochelidon ariel</t>
   </si>
   <si>
+    <t>Please generate a short species bio with some interesting facts about  Petrochelidon ariel.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Petrochelidon ariel in it's natural habitat</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>Petrochelidon nigricans</t>
   </si>
   <si>
+    <t>Please generate a short species bio with some interesting facts about  Petrochelidon nigricans.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Petrochelidon nigricans in it's natural habitat</t>
+  </si>
+  <si>
     <t>Petroica boodang</t>
   </si>
   <si>
+    <t>Please generate a short species bio with some interesting facts about  Petroica boodang.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Petroica boodang in it's natural habitat</t>
+  </si>
+  <si>
     <t>Petroica goodenovii</t>
   </si>
   <si>
+    <t>Please generate a short species bio with some interesting facts about  Petroica goodenovii.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Petroica goodenovii in it's natural habitat</t>
+  </si>
+  <si>
     <t>Petroica phoenicea</t>
   </si>
   <si>
+    <t>Please generate a short species bio with some interesting facts about  Petroica phoenicea.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Petroica phoenicea in it's natural habitat</t>
+  </si>
+  <si>
     <t>Petroica rosea</t>
   </si>
   <si>
+    <t>Please generate a short species bio with some interesting facts about  Petroica rosea.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Petroica rosea in it's natural habitat</t>
+  </si>
+  <si>
     <t>PhaneropterinaeÂ sp.</t>
   </si>
   <si>
+    <t>Please generate a short species bio with some interesting facts about  PhaneropterinaeÂ sp..</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, PhaneropterinaeÂ sp. in it's natural habitat</t>
+  </si>
+  <si>
     <t>Phaps chalcoptera</t>
   </si>
   <si>
+    <t>Please generate a short species bio with some interesting facts about  Phaps chalcoptera.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Phaps chalcoptera in it's natural habitat</t>
+  </si>
+  <si>
     <t>Phaps elegans</t>
   </si>
   <si>
+    <t>Please generate a short species bio with some interesting facts about  Phaps elegans.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Phaps elegans in it's natural habitat</t>
+  </si>
+  <si>
     <t>PhapsÂ sp.</t>
   </si>
   <si>
+    <t>not found</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  PhapsÂ sp..</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, PhapsÂ sp. in it's natural habitat</t>
+  </si>
+  <si>
     <t>Philemon argenticeps</t>
   </si>
   <si>
+    <t>Please generate a short species bio with some interesting facts about  Philemon argenticeps.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Philemon argenticeps in it's natural habitat</t>
+  </si>
+  <si>
     <t>Philemon buceroides</t>
   </si>
   <si>
+    <t>Please generate a short species bio with some interesting facts about  Philemon buceroides.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Philemon buceroides in it's natural habitat</t>
+  </si>
+  <si>
     <t>Philemon citreogularis</t>
   </si>
   <si>
+    <t>Please generate a short species bio with some interesting facts about  Philemon citreogularis.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Philemon citreogularis in it's natural habitat</t>
+  </si>
+  <si>
     <t>Philemon corniculatus</t>
   </si>
   <si>
+    <t>Please generate a short species bio with some interesting facts about  Philemon corniculatus.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Philemon corniculatus in it's natural habitat</t>
+  </si>
+  <si>
     <t>Phylidonyris novaehollandiae</t>
   </si>
   <si>
-    <t>Bio Prompt</t>
-  </si>
-  <si>
-    <t>Image Prompt</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Litoria latopalmata in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Litoria myola in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Litoria peronii in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Litoria serrata in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Litoria verreauxii in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Litoria xanthomera in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Lophochroa leadbeateri in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Macropus giganteus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, MalacostracaÂ sp. in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Malurus coronatus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Malurus cyaneus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Malurus lamberti in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Malurus leucopterus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Malurus splendens in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Manorina flavigula in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Manorina melanocephala in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Manorina melanophrys in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Megapodius reinwardt in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Melanodryas cucullata in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Meliphaga lewinii in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Melithreptus albogularis in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Melithreptus brevirostris in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Melithreptus gularis in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Melithreptus lunatus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Melopsittacus undulatus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Menura alberti in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Menura novaehollandiae in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Merops ornatus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, MicrochiropteraÂ sp. in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Microeca fascinans in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Microeca flavigaster in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Milvus migrans in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Mirafra javanica in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Myiagra alecto in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Myiagra cyanoleuca in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Myiagra inquieta in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Myiagra rubecula in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Myzomela erythrocephala in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Myzomela sanguinolenta in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Neochmia phaeton in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Neochmia temporalis in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Neophema pulchella in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Neosericornis citreogularis in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Nesoptilotis leucotis in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Nettapus pulchellus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Ninox boobook in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Ninox connivens in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Ninox strenua in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Notamacropus rufogriseus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, NotopsaltraÂ atrata in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Nycticorax caledonicus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Nymphicus hollandicus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Ocyphaps lophotes in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Oreoica gutturalis in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Origma solitaria in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Oriolus flavocinctus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Oriolus sagittatus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Osphranter robustus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Pachycephala inornata in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Pachycephala pectoralis in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Pachycephala rufiventris in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Pachycephala simplex in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Pardalotus punctatus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Pardalotus rubricatus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Pardalotus striatus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Parvipsitta pusilla in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Pelecanus conspicillatus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Petrochelidon ariel in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Petrochelidon nigricans in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Petroica boodang in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Petroica goodenovii in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Petroica phoenicea in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Petroica rosea in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, PhaneropterinaeÂ sp. in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Phaps chalcoptera in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Phaps elegans in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, PhapsÂ sp. in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Philemon argenticeps in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Philemon buceroides in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Philemon citreogularis in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Philemon corniculatus in it's natural habitat</t>
+    <t>Please generate a short species bio with some interesting facts about  Phylidonyris novaehollandiae.</t>
   </si>
   <si>
     <t>A photo realistic images of the animal, Phylidonyris novaehollandiae in it's natural habitat</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Litoria latopalmata.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Litoria myola.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Litoria peronii.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Litoria serrata.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Litoria verreauxii.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Litoria xanthomera.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Lophochroa leadbeateri.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Macropus giganteus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  MalacostracaÂ sp..</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Malurus coronatus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Malurus cyaneus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Malurus lamberti.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Malurus leucopterus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Malurus splendens.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Manorina flavigula.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Manorina melanocephala.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Manorina melanophrys.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Megapodius reinwardt.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Melanodryas cucullata.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Meliphaga lewinii.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Melithreptus albogularis.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Melithreptus brevirostris.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Melithreptus gularis.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Melithreptus lunatus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Melopsittacus undulatus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Menura alberti.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Menura novaehollandiae.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Merops ornatus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  MicrochiropteraÂ sp..</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Microeca fascinans.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Microeca flavigaster.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Milvus migrans.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Mirafra javanica.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Myiagra alecto.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Myiagra cyanoleuca.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Myiagra inquieta.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Myiagra rubecula.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Myzomela erythrocephala.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Myzomela sanguinolenta.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Neochmia phaeton.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Neochmia temporalis.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Neophema pulchella.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Neosericornis citreogularis.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Nesoptilotis leucotis.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Nettapus pulchellus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Ninox boobook.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Ninox connivens.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Ninox strenua.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Notamacropus rufogriseus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  NotopsaltraÂ atrata.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Nycticorax caledonicus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Nymphicus hollandicus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Ocyphaps lophotes.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Oreoica gutturalis.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Origma solitaria.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Oriolus flavocinctus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Oriolus sagittatus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Osphranter robustus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Pachycephala inornata.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Pachycephala pectoralis.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Pachycephala rufiventris.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Pachycephala simplex.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Pardalotus punctatus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Pardalotus rubricatus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Pardalotus striatus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Parvipsitta pusilla.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Pelecanus conspicillatus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Petrochelidon ariel.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Petrochelidon nigricans.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Petroica boodang.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Petroica goodenovii.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Petroica phoenicea.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Petroica rosea.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  PhaneropterinaeÂ sp..</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Phaps chalcoptera.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Phaps elegans.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  PhapsÂ sp..</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Philemon argenticeps.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Philemon buceroides.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Philemon citreogularis.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Philemon corniculatus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Phylidonyris novaehollandiae.</t>
-  </si>
-  <si>
-    <t>Common Name</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Kuranda Tree Frog</t>
-  </si>
-  <si>
-    <t>Common Name?</t>
-  </si>
-  <si>
-    <t>Peron's Tree Frog</t>
-  </si>
-  <si>
-    <t>Orange Thighed Tree Frog</t>
-  </si>
-  <si>
-    <t>Purple-crowned fairy wren</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1484,7 +1484,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1540,6 +1540,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1897,76 +1900,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.08984375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="45.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="17.08984375" style="20" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="21" customWidth="1"/>
-    <col min="10" max="10" width="27.6328125" style="22" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" customWidth="1"/>
-    <col min="12" max="12" width="30.90625" customWidth="1"/>
-    <col min="13" max="13" width="27.6328125" customWidth="1"/>
-    <col min="14" max="14" width="23.90625" customWidth="1"/>
-    <col min="15" max="15" width="144.7265625" customWidth="1"/>
-    <col min="16" max="16" width="60.90625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" style="22" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" customWidth="1"/>
+    <col min="15" max="15" width="144.7109375" customWidth="1"/>
+    <col min="16" max="16" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="47.1" customHeight="1" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="33.6" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>257</v>
+        <v>13</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L2" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A2,#REF!)</f>
@@ -1977,24 +1983,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="33.6" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>259</v>
+        <v>13</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L3" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A3,#REF!)</f>
@@ -2005,21 +2008,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="33.6" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>259</v>
+        <v>20</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L4" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A4,#REF!)</f>
@@ -2030,18 +2033,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="33.6" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L5" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A5,#REF!)</f>
@@ -2052,18 +2058,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="33.6" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L6" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A6,#REF!)</f>
@@ -2074,21 +2083,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="33.6" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>261</v>
+        <v>27</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>259</v>
+        <v>29</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L7" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A7,#REF!)</f>
@@ -2099,18 +2108,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="33.6" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L8" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A8,#REF!)</f>
@@ -2121,18 +2133,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="33.6" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>181</v>
+        <v>34</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L9" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A9,#REF!)</f>
@@ -2143,18 +2158,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="33.6" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L10" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A10,#REF!)</f>
@@ -2165,21 +2183,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="33.6" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>259</v>
+        <v>41</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L11" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A11,#REF!)</f>
@@ -2190,15 +2208,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="33.6" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>102</v>
+        <v>44</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L12" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A12,#REF!)</f>
@@ -2209,15 +2233,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="33.6" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>103</v>
+        <v>47</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L13" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A13,#REF!)</f>
@@ -2228,15 +2258,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="33.6" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>104</v>
+        <v>50</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L14" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A14,#REF!)</f>
@@ -2247,15 +2283,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="33.6" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>105</v>
+        <v>53</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L15" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A15,#REF!)</f>
@@ -2266,15 +2308,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="33.6" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>106</v>
+        <v>56</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L16" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A16,#REF!)</f>
@@ -2285,15 +2333,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="33.6" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>107</v>
+        <v>59</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L17" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A17,#REF!)</f>
@@ -2304,15 +2358,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="33.6" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>108</v>
+        <v>62</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L18" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A18,#REF!)</f>
@@ -2323,15 +2383,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="33.6" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>109</v>
+        <v>65</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L19" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A19,#REF!)</f>
@@ -2342,15 +2408,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="33.6" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>110</v>
+        <v>68</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L20" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A20,#REF!)</f>
@@ -2361,15 +2433,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="33.6" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>111</v>
+        <v>71</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L21" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A21,#REF!)</f>
@@ -2380,15 +2458,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="33.6" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>112</v>
+        <v>74</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L22" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A22,#REF!)</f>
@@ -2399,15 +2483,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="33.6" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>113</v>
+        <v>77</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L23" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A23,#REF!)</f>
@@ -2418,15 +2508,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="33.6" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>114</v>
+        <v>80</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L24" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A24,#REF!)</f>
@@ -2437,15 +2533,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="33.6" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>115</v>
+        <v>83</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L25" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A25,#REF!)</f>
@@ -2456,15 +2558,21 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="33.6" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>116</v>
+        <v>86</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L26" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A26,#REF!)</f>
@@ -2475,15 +2583,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="33.6" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>117</v>
+        <v>90</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>13</v>
       </c>
       <c r="L27" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A27,#REF!)</f>
@@ -2494,15 +2611,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="33.6" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>91</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>118</v>
+        <v>93</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L28" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A28,#REF!)</f>
@@ -2513,15 +2639,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="33.6" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>94</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>201</v>
+        <v>95</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>119</v>
+        <v>96</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L29" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A29,#REF!)</f>
@@ -2532,15 +2667,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="33.6" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>97</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>120</v>
+        <v>99</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L30" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A30,#REF!)</f>
@@ -2551,15 +2695,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="33.6" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>100</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>121</v>
+        <v>102</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L31" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A31,#REF!)</f>
@@ -2570,15 +2723,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="33.6" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>103</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>122</v>
+        <v>105</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L32" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A32,#REF!)</f>
@@ -2589,15 +2751,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="33.6" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>106</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>123</v>
+        <v>108</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L33" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A33,#REF!)</f>
@@ -2608,15 +2779,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="33.6" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>109</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>124</v>
+        <v>111</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L34" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A34,#REF!)</f>
@@ -2627,15 +2807,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="33.6" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>112</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>125</v>
+        <v>114</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L35" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A35,#REF!)</f>
@@ -2646,15 +2835,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="33.6" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>115</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>126</v>
+        <v>117</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L36" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A36,#REF!)</f>
@@ -2665,15 +2863,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="33.6" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>118</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>127</v>
+        <v>120</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L37" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A37,#REF!)</f>
@@ -2684,15 +2891,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="33.6" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>121</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L38" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A38,#REF!)</f>
@@ -2703,15 +2919,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="33.6" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>124</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L39" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A39,#REF!)</f>
@@ -2722,15 +2947,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="33.6" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>127</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L40" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A40,#REF!)</f>
@@ -2741,15 +2975,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="33.6" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>130</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L41" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A41,#REF!)</f>
@@ -2760,15 +3003,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="33.6" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>133</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L42" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A42,#REF!)</f>
@@ -2779,15 +3031,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="33.6" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>136</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>133</v>
+        <v>138</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L43" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A43,#REF!)</f>
@@ -2798,15 +3059,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="33.6" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>139</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>134</v>
+        <v>141</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L44" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A44,#REF!)</f>
@@ -2817,15 +3087,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="33.6" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>142</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>135</v>
+        <v>144</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L45" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A45,#REF!)</f>
@@ -2836,15 +3115,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="33.6" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>145</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L46" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A46,#REF!)</f>
@@ -2855,15 +3143,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="33.6" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>148</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>137</v>
+        <v>150</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L47" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A47,#REF!)</f>
@@ -2874,15 +3171,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" ht="33.6" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>151</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>138</v>
+        <v>153</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L48" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A48,#REF!)</f>
@@ -2893,15 +3199,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="33.6" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>154</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>139</v>
+        <v>156</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L49" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A49,#REF!)</f>
@@ -2912,15 +3227,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="33.6" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>157</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>140</v>
+        <v>159</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L50" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A50,#REF!)</f>
@@ -2931,15 +3255,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="33.6" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>160</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>141</v>
+        <v>162</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L51" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A51,#REF!)</f>
@@ -2950,15 +3283,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="33.6" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>58</v>
+        <v>163</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>142</v>
+        <v>165</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L52" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A52,#REF!)</f>
@@ -2969,15 +3311,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="33.6" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>59</v>
+        <v>166</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>143</v>
+        <v>168</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L53" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A53,#REF!)</f>
@@ -2988,15 +3339,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="33.6" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>169</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>144</v>
+        <v>171</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L54" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A54,#REF!)</f>
@@ -3007,15 +3367,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="33.6" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>172</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>145</v>
+        <v>174</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L55" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A55,#REF!)</f>
@@ -3026,15 +3395,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="33.6" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>175</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>146</v>
+        <v>177</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L56" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A56,#REF!)</f>
@@ -3045,15 +3423,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="33.6" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>63</v>
+        <v>178</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>147</v>
+        <v>180</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L57" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A57,#REF!)</f>
@@ -3064,15 +3451,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="33.6" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>181</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>148</v>
+        <v>183</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L58" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A58,#REF!)</f>
@@ -3083,15 +3479,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="33.6" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>65</v>
+        <v>184</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>149</v>
+        <v>186</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L59" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A59,#REF!)</f>
@@ -3102,15 +3507,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="33.6" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>66</v>
+        <v>187</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>150</v>
+        <v>189</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L60" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A60,#REF!)</f>
@@ -3121,15 +3535,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="33.6" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>67</v>
+        <v>190</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>151</v>
+        <v>192</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L61" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A61,#REF!)</f>
@@ -3140,18 +3563,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="33.6" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>68</v>
+        <v>193</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>152</v>
+        <v>195</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L62" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A62,#REF!)</f>
@@ -3162,15 +3591,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="33.6" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>69</v>
+        <v>196</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>153</v>
+        <v>198</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L63" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A63,#REF!)</f>
@@ -3181,15 +3619,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="33.6" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>199</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>154</v>
+        <v>201</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="L64" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A64,#REF!)</f>
@@ -3200,15 +3647,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" ht="33.6" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>71</v>
+        <v>202</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>155</v>
+        <v>204</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L65" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A65,#REF!)</f>
@@ -3219,15 +3675,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" ht="33.6" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>205</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>156</v>
+        <v>207</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L66" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A66,#REF!)</f>
@@ -3238,15 +3703,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="33.6" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>73</v>
+        <v>208</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>157</v>
+        <v>210</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="L67" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A67,#REF!)</f>
@@ -3257,15 +3731,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="33.6" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>74</v>
+        <v>211</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>158</v>
+        <v>213</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>215</v>
       </c>
       <c r="L68" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A68,#REF!)</f>
@@ -3276,15 +3759,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" ht="33.6" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>216</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>159</v>
+        <v>218</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="L69" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A69,#REF!)</f>
@@ -3295,15 +3787,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" ht="33.6" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>220</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>160</v>
+        <v>222</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="L70" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A70,#REF!)</f>
@@ -3314,15 +3815,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" ht="33.6" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>223</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>161</v>
+        <v>225</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="L71" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A71,#REF!)</f>
@@ -3333,15 +3843,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" ht="33.6" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>226</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>162</v>
+        <v>228</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>215</v>
       </c>
       <c r="L72" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A72,#REF!)</f>
@@ -3352,15 +3871,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" ht="33.6" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>229</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>163</v>
+        <v>231</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>215</v>
       </c>
       <c r="L73" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A73,#REF!)</f>
@@ -3371,15 +3899,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" ht="33.6" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>80</v>
+        <v>232</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>164</v>
+        <v>234</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>215</v>
       </c>
       <c r="L74" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A74,#REF!)</f>
@@ -3390,15 +3927,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" ht="33.6" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>81</v>
+        <v>235</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>165</v>
+        <v>237</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="L75" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A75,#REF!)</f>
@@ -3409,15 +3955,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" ht="33.6" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>82</v>
+        <v>238</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>166</v>
+        <v>240</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="L76" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A76,#REF!)</f>
@@ -3428,15 +3983,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" ht="33.6" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>241</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>167</v>
+        <v>243</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="L77" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A77,#REF!)</f>
@@ -3447,15 +4011,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" ht="33.6" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>244</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>245</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>168</v>
+        <v>247</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="L78" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A78,#REF!)</f>
@@ -3466,15 +4039,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" ht="33.6" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>85</v>
+        <v>248</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>169</v>
+        <v>250</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="L79" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A79,#REF!)</f>
@@ -3485,15 +4067,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" ht="33.6" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>251</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>252</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>170</v>
+        <v>253</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="L80" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A80,#REF!)</f>
@@ -3504,15 +4095,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" ht="33.6" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>254</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>171</v>
+        <v>256</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="L81" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A81,#REF!)</f>
@@ -3523,15 +4123,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" ht="33.6" customHeight="1">
       <c r="A82" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B82" s="24" t="s">
         <v>88</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>172</v>
+        <v>259</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="L82" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A82,#REF!)</f>
@@ -3542,15 +4151,24 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" ht="33.6" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>260</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>173</v>
+        <v>262</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="L83" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A83,#REF!)</f>
